--- a/sales_df_cleaned.xlsx
+++ b/sales_df_cleaned.xlsx
@@ -598,7 +598,7 @@
         <v>43227</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.357</v>
       </c>
       <c r="F4" t="n">
         <v>114.612</v>
@@ -621,12 +621,8 @@
       <c r="J4" s="2" t="n">
         <v>43233</v>
       </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>6</v>
-      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -644,7 +640,7 @@
         <v>43234</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1.533</v>
       </c>
       <c r="F5" t="n">
         <v>24.885</v>
@@ -667,12 +663,8 @@
       <c r="J5" s="2" t="n">
         <v>43240</v>
       </c>
-      <c r="K5" t="n">
-        <v>0</v>
-      </c>
-      <c r="L5" t="n">
-        <v>6</v>
-      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -778,7 +770,7 @@
         <v>43255</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.273</v>
       </c>
       <c r="F8" t="n">
         <v>181.041</v>
@@ -801,12 +793,8 @@
       <c r="J8" s="2" t="n">
         <v>43261</v>
       </c>
-      <c r="K8" t="n">
-        <v>0</v>
-      </c>
-      <c r="L8" t="n">
-        <v>6</v>
-      </c>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -958,7 +946,7 @@
         <v>43283</v>
       </c>
       <c r="E12" t="n">
-        <v>29.841</v>
+        <v>28.863</v>
       </c>
       <c r="F12" t="n">
         <v>29.841</v>
@@ -981,12 +969,8 @@
       <c r="J12" s="2" t="n">
         <v>43289</v>
       </c>
-      <c r="K12" t="n">
-        <v>6</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -1142,7 +1126,7 @@
         <v>43311</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.057</v>
       </c>
       <c r="F16" t="n">
         <v>1.296</v>
@@ -1165,12 +1149,8 @@
       <c r="J16" s="2" t="n">
         <v>43317</v>
       </c>
-      <c r="K16" t="n">
-        <v>0</v>
-      </c>
-      <c r="L16" t="n">
-        <v>6</v>
-      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -1188,7 +1168,7 @@
         <v>43318</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.048</v>
       </c>
       <c r="F17" t="n">
         <v>153.531</v>
@@ -1211,12 +1191,8 @@
       <c r="J17" s="2" t="n">
         <v>43324</v>
       </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>6</v>
-      </c>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -1276,7 +1252,7 @@
         <v>43332</v>
       </c>
       <c r="E19" t="n">
-        <v>11.688</v>
+        <v>11.463</v>
       </c>
       <c r="F19" t="n">
         <v>11.688</v>
@@ -1299,12 +1275,8 @@
       <c r="J19" s="2" t="n">
         <v>43338</v>
       </c>
-      <c r="K19" t="n">
-        <v>6</v>
-      </c>
-      <c r="L19" t="n">
-        <v>0</v>
-      </c>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -1406,7 +1378,7 @@
         <v>43353</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.885</v>
       </c>
       <c r="F22" t="n">
         <v>315.399</v>
@@ -1429,12 +1401,8 @@
       <c r="J22" s="2" t="n">
         <v>43359</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>6</v>
-      </c>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1582,7 +1550,7 @@
         <v>43381</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>0.8280000000000001</v>
       </c>
       <c r="F26" t="n">
         <v>185.271</v>
@@ -1605,12 +1573,8 @@
       <c r="J26" s="2" t="n">
         <v>43387</v>
       </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>6</v>
-      </c>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -2290,7 +2254,7 @@
         <v>43493</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>5.3136</v>
       </c>
       <c r="F42" t="n">
         <v>62.6892</v>
@@ -2313,12 +2277,8 @@
       <c r="J42" s="2" t="n">
         <v>43499</v>
       </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>6</v>
-      </c>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -2864,7 +2824,7 @@
         <v>43584</v>
       </c>
       <c r="E55" t="n">
-        <v>0</v>
+        <v>1.7208</v>
       </c>
       <c r="F55" t="n">
         <v>30.6393</v>
@@ -2887,12 +2847,8 @@
       <c r="J55" s="2" t="n">
         <v>43590</v>
       </c>
-      <c r="K55" t="n">
-        <v>0</v>
-      </c>
-      <c r="L55" t="n">
-        <v>6</v>
-      </c>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -3132,7 +3088,7 @@
         <v>43626</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>3.7986</v>
       </c>
       <c r="F61" t="n">
         <v>81.6405</v>
@@ -3155,12 +3111,8 @@
       <c r="J61" s="2" t="n">
         <v>43632</v>
       </c>
-      <c r="K61" t="n">
-        <v>0</v>
-      </c>
-      <c r="L61" t="n">
-        <v>6</v>
-      </c>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -3354,7 +3306,7 @@
         <v>43661</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>3.8262</v>
       </c>
       <c r="F66" t="n">
         <v>289.8753</v>
@@ -3377,12 +3329,8 @@
       <c r="J66" s="2" t="n">
         <v>43667</v>
       </c>
-      <c r="K66" t="n">
-        <v>0</v>
-      </c>
-      <c r="L66" t="n">
-        <v>6</v>
-      </c>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -3400,7 +3348,7 @@
         <v>43668</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>11.4156</v>
       </c>
       <c r="F67" t="n">
         <v>171.4683</v>
@@ -3423,12 +3371,8 @@
       <c r="J67" s="2" t="n">
         <v>43674</v>
       </c>
-      <c r="K67" t="n">
-        <v>0</v>
-      </c>
-      <c r="L67" t="n">
-        <v>6</v>
-      </c>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -3576,7 +3520,7 @@
         <v>43696</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>1.2225</v>
       </c>
       <c r="F71" t="n">
         <v>59.2173</v>
@@ -3599,12 +3543,8 @@
       <c r="J71" s="2" t="n">
         <v>43702</v>
       </c>
-      <c r="K71" t="n">
-        <v>0</v>
-      </c>
-      <c r="L71" t="n">
-        <v>6</v>
-      </c>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -3706,7 +3646,7 @@
         <v>43717</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>3.8259</v>
       </c>
       <c r="F74" t="n">
         <v>171.2877</v>
@@ -3729,12 +3669,8 @@
       <c r="J74" s="2" t="n">
         <v>43723</v>
       </c>
-      <c r="K74" t="n">
-        <v>0</v>
-      </c>
-      <c r="L74" t="n">
-        <v>6</v>
-      </c>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -3752,7 +3688,7 @@
         <v>43724</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>1.4667</v>
       </c>
       <c r="F75" t="n">
         <v>20.5293</v>
@@ -3775,12 +3711,8 @@
       <c r="J75" s="2" t="n">
         <v>43730</v>
       </c>
-      <c r="K75" t="n">
-        <v>0</v>
-      </c>
-      <c r="L75" t="n">
-        <v>6</v>
-      </c>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -3798,7 +3730,7 @@
         <v>43731</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>2.172</v>
       </c>
       <c r="F76" t="n">
         <v>499.5033</v>
@@ -3821,12 +3753,8 @@
       <c r="J76" s="2" t="n">
         <v>43737</v>
       </c>
-      <c r="K76" t="n">
-        <v>0</v>
-      </c>
-      <c r="L76" t="n">
-        <v>6</v>
-      </c>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -4116,7 +4044,7 @@
         <v>43780</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.4512</v>
       </c>
       <c r="F83" t="n">
         <v>19.7118</v>
@@ -4139,12 +4067,8 @@
       <c r="J83" s="2" t="n">
         <v>43786</v>
       </c>
-      <c r="K83" t="n">
-        <v>0</v>
-      </c>
-      <c r="L83" t="n">
-        <v>6</v>
-      </c>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -5116,7 +5040,7 @@
         <v>43934</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>1.3542</v>
       </c>
       <c r="F105" t="n">
         <v>105.012</v>
@@ -5139,12 +5063,8 @@
       <c r="J105" s="2" t="n">
         <v>43940</v>
       </c>
-      <c r="K105" t="n">
-        <v>0</v>
-      </c>
-      <c r="L105" t="n">
-        <v>6</v>
-      </c>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="1" t="n">
@@ -5208,7 +5128,7 @@
         <v>43948</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.6860999999999999</v>
       </c>
       <c r="F107" t="n">
         <v>10.1661</v>
@@ -5231,12 +5151,8 @@
       <c r="J107" s="2" t="n">
         <v>43954</v>
       </c>
-      <c r="K107" t="n">
-        <v>0</v>
-      </c>
-      <c r="L107" t="n">
-        <v>6</v>
-      </c>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
@@ -5254,7 +5170,7 @@
         <v>43955</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>0.07500000000000001</v>
       </c>
       <c r="F108" t="n">
         <v>77.31660000000001</v>
@@ -5277,12 +5193,8 @@
       <c r="J108" s="2" t="n">
         <v>43961</v>
       </c>
-      <c r="K108" t="n">
-        <v>0</v>
-      </c>
-      <c r="L108" t="n">
-        <v>6</v>
-      </c>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
@@ -5384,7 +5296,7 @@
         <v>43976</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.4512</v>
       </c>
       <c r="F111" t="n">
         <v>79.0539</v>
@@ -5407,12 +5319,8 @@
       <c r="J111" s="2" t="n">
         <v>43982</v>
       </c>
-      <c r="K111" t="n">
-        <v>0</v>
-      </c>
-      <c r="L111" t="n">
-        <v>6</v>
-      </c>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
@@ -5844,7 +5752,7 @@
         <v>44046</v>
       </c>
       <c r="E121" t="n">
-        <v>16.430535</v>
+        <v>15.828615</v>
       </c>
       <c r="F121" t="n">
         <v>16.430535</v>
@@ -5867,12 +5775,8 @@
       <c r="J121" s="2" t="n">
         <v>44052</v>
       </c>
-      <c r="K121" t="n">
-        <v>6</v>
-      </c>
-      <c r="L121" t="n">
-        <v>0</v>
-      </c>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
@@ -5936,7 +5840,7 @@
         <v>44060</v>
       </c>
       <c r="E123" t="n">
-        <v>0</v>
+        <v>0.291555</v>
       </c>
       <c r="F123" t="n">
         <v>12.160665</v>
@@ -5959,12 +5863,8 @@
       <c r="J123" s="2" t="n">
         <v>44066</v>
       </c>
-      <c r="K123" t="n">
-        <v>0</v>
-      </c>
-      <c r="L123" t="n">
-        <v>6</v>
-      </c>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
@@ -5982,7 +5882,7 @@
         <v>44067</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>4.40154</v>
       </c>
       <c r="F124" t="n">
         <v>70.91369999999999</v>
@@ -6005,12 +5905,8 @@
       <c r="J124" s="2" t="n">
         <v>44073</v>
       </c>
-      <c r="K124" t="n">
-        <v>0</v>
-      </c>
-      <c r="L124" t="n">
-        <v>6</v>
-      </c>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
@@ -6074,7 +5970,7 @@
         <v>44081</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>1.1286</v>
       </c>
       <c r="F126" t="n">
         <v>114.825645</v>
@@ -6097,12 +5993,8 @@
       <c r="J126" s="2" t="n">
         <v>44087</v>
       </c>
-      <c r="K126" t="n">
-        <v>0</v>
-      </c>
-      <c r="L126" t="n">
-        <v>6</v>
-      </c>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
@@ -6120,7 +6012,7 @@
         <v>44088</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>0.45144</v>
       </c>
       <c r="F127" t="n">
         <v>109.050975</v>
@@ -6143,12 +6035,8 @@
       <c r="J127" s="2" t="n">
         <v>44094</v>
       </c>
-      <c r="K127" t="n">
-        <v>0</v>
-      </c>
-      <c r="L127" t="n">
-        <v>6</v>
-      </c>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
@@ -6346,7 +6234,7 @@
         <v>44123</v>
       </c>
       <c r="E132" t="n">
-        <v>50.909265</v>
+        <v>49.554945</v>
       </c>
       <c r="F132" t="n">
         <v>50.909265</v>
@@ -6369,12 +6257,8 @@
       <c r="J132" s="2" t="n">
         <v>44129</v>
       </c>
-      <c r="K132" t="n">
-        <v>6</v>
-      </c>
-      <c r="L132" t="n">
-        <v>0</v>
-      </c>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
@@ -6392,7 +6276,7 @@
         <v>44130</v>
       </c>
       <c r="E133" t="n">
-        <v>23.634765</v>
+        <v>23.183325</v>
       </c>
       <c r="F133" t="n">
         <v>23.634765</v>
@@ -6415,12 +6299,8 @@
       <c r="J133" s="2" t="n">
         <v>44136</v>
       </c>
-      <c r="K133" t="n">
-        <v>6</v>
-      </c>
-      <c r="L133" t="n">
-        <v>0</v>
-      </c>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
@@ -7124,7 +7004,7 @@
         <v>44242</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.9405</v>
       </c>
       <c r="F149" t="n">
         <v>29.36241</v>
@@ -7147,12 +7027,8 @@
       <c r="J149" s="2" t="n">
         <v>44248</v>
       </c>
-      <c r="K149" t="n">
-        <v>0</v>
-      </c>
-      <c r="L149" t="n">
-        <v>6</v>
-      </c>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
@@ -7392,7 +7268,7 @@
         <v>44284</v>
       </c>
       <c r="E155" t="n">
-        <v>0</v>
+        <v>3.83724</v>
       </c>
       <c r="F155" t="n">
         <v>45.698895</v>
@@ -7415,12 +7291,8 @@
       <c r="J155" s="2" t="n">
         <v>44290</v>
       </c>
-      <c r="K155" t="n">
-        <v>0</v>
-      </c>
-      <c r="L155" t="n">
-        <v>6</v>
-      </c>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
@@ -7438,7 +7310,7 @@
         <v>44291</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>5.24799</v>
       </c>
       <c r="F156" t="n">
         <v>140.933925</v>
@@ -7461,12 +7333,8 @@
       <c r="J156" s="2" t="n">
         <v>44297</v>
       </c>
-      <c r="K156" t="n">
-        <v>0</v>
-      </c>
-      <c r="L156" t="n">
-        <v>6</v>
-      </c>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
@@ -8066,7 +7934,7 @@
         <v>43227</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>0.4409999999999999</v>
       </c>
       <c r="F170" t="n">
         <v>116.853</v>
@@ -8089,12 +7957,8 @@
       <c r="J170" s="2" t="n">
         <v>43233</v>
       </c>
-      <c r="K170" t="n">
-        <v>0</v>
-      </c>
-      <c r="L170" t="n">
-        <v>6</v>
-      </c>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
@@ -8242,7 +8106,7 @@
         <v>43255</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>0.282</v>
       </c>
       <c r="F174" t="n">
         <v>159.831</v>
@@ -8265,12 +8129,8 @@
       <c r="J174" s="2" t="n">
         <v>43261</v>
       </c>
-      <c r="K174" t="n">
-        <v>0</v>
-      </c>
-      <c r="L174" t="n">
-        <v>6</v>
-      </c>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
@@ -8606,7 +8466,7 @@
         <v>43311</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>0.18</v>
       </c>
       <c r="F182" t="n">
         <v>2.643</v>
@@ -8629,12 +8489,8 @@
       <c r="J182" s="2" t="n">
         <v>43317</v>
       </c>
-      <c r="K182" t="n">
-        <v>0</v>
-      </c>
-      <c r="L182" t="n">
-        <v>6</v>
-      </c>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
@@ -8652,7 +8508,7 @@
         <v>43318</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>0.141</v>
       </c>
       <c r="F183" t="n">
         <v>139.95</v>
@@ -8675,12 +8531,8 @@
       <c r="J183" s="2" t="n">
         <v>43324</v>
       </c>
-      <c r="K183" t="n">
-        <v>0</v>
-      </c>
-      <c r="L183" t="n">
-        <v>6</v>
-      </c>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
@@ -8740,7 +8592,7 @@
         <v>43332</v>
       </c>
       <c r="E185" t="n">
-        <v>8.678999999999998</v>
+        <v>8.34</v>
       </c>
       <c r="F185" t="n">
         <v>8.678999999999998</v>
@@ -8763,12 +8615,8 @@
       <c r="J185" s="2" t="n">
         <v>43338</v>
       </c>
-      <c r="K185" t="n">
-        <v>6</v>
-      </c>
-      <c r="L185" t="n">
-        <v>0</v>
-      </c>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
@@ -8870,7 +8718,7 @@
         <v>43353</v>
       </c>
       <c r="E188" t="n">
-        <v>0</v>
+        <v>5.973000000000001</v>
       </c>
       <c r="F188" t="n">
         <v>114.912</v>
@@ -8893,12 +8741,8 @@
       <c r="J188" s="2" t="n">
         <v>43359</v>
       </c>
-      <c r="K188" t="n">
-        <v>0</v>
-      </c>
-      <c r="L188" t="n">
-        <v>6</v>
-      </c>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
@@ -9046,7 +8890,7 @@
         <v>43381</v>
       </c>
       <c r="E192" t="n">
-        <v>0</v>
+        <v>1.674</v>
       </c>
       <c r="F192" t="n">
         <v>196.134</v>
@@ -9069,12 +8913,8 @@
       <c r="J192" s="2" t="n">
         <v>43387</v>
       </c>
-      <c r="K192" t="n">
-        <v>0</v>
-      </c>
-      <c r="L192" t="n">
-        <v>6</v>
-      </c>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
@@ -9180,7 +9020,7 @@
         <v>43402</v>
       </c>
       <c r="E195" t="n">
-        <v>0</v>
+        <v>1.581</v>
       </c>
       <c r="F195" t="n">
         <v>24.066</v>
@@ -9203,12 +9043,8 @@
       <c r="J195" s="2" t="n">
         <v>43408</v>
       </c>
-      <c r="K195" t="n">
-        <v>0</v>
-      </c>
-      <c r="L195" t="n">
-        <v>6</v>
-      </c>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
@@ -10366,7 +10202,7 @@
         <v>43591</v>
       </c>
       <c r="E222" t="n">
-        <v>0</v>
+        <v>1.2411</v>
       </c>
       <c r="F222" t="n">
         <v>109.2132</v>
@@ -10389,12 +10225,8 @@
       <c r="J222" s="2" t="n">
         <v>43597</v>
       </c>
-      <c r="K222" t="n">
-        <v>0</v>
-      </c>
-      <c r="L222" t="n">
-        <v>6</v>
-      </c>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
@@ -10458,7 +10290,7 @@
         <v>43605</v>
       </c>
       <c r="E224" t="n">
-        <v>8.491199999999999</v>
+        <v>8.265599999999999</v>
       </c>
       <c r="F224" t="n">
         <v>8.491199999999999</v>
@@ -10481,12 +10313,8 @@
       <c r="J224" s="2" t="n">
         <v>43611</v>
       </c>
-      <c r="K224" t="n">
-        <v>6</v>
-      </c>
-      <c r="L224" t="n">
-        <v>0</v>
-      </c>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
@@ -10550,7 +10378,7 @@
         <v>43619</v>
       </c>
       <c r="E226" t="n">
-        <v>28.6554</v>
+        <v>26.4081</v>
       </c>
       <c r="F226" t="n">
         <v>28.6554</v>
@@ -10573,12 +10401,8 @@
       <c r="J226" s="2" t="n">
         <v>43625</v>
       </c>
-      <c r="K226" t="n">
-        <v>6</v>
-      </c>
-      <c r="L226" t="n">
-        <v>0</v>
-      </c>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
@@ -10596,7 +10420,7 @@
         <v>43626</v>
       </c>
       <c r="E227" t="n">
-        <v>0</v>
+        <v>4.926600000000001</v>
       </c>
       <c r="F227" t="n">
         <v>74.1537</v>
@@ -10619,12 +10443,8 @@
       <c r="J227" s="2" t="n">
         <v>43632</v>
       </c>
-      <c r="K227" t="n">
-        <v>0</v>
-      </c>
-      <c r="L227" t="n">
-        <v>6</v>
-      </c>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
@@ -11044,7 +10864,7 @@
         <v>43696</v>
       </c>
       <c r="E237" t="n">
-        <v>0</v>
+        <v>0.8835</v>
       </c>
       <c r="F237" t="n">
         <v>51.26820000000001</v>
@@ -11067,12 +10887,8 @@
       <c r="J237" s="2" t="n">
         <v>43702</v>
       </c>
-      <c r="K237" t="n">
-        <v>0</v>
-      </c>
-      <c r="L237" t="n">
-        <v>6</v>
-      </c>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
@@ -11496,7 +11312,7 @@
         <v>43766</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>0.03750000000000001</v>
       </c>
       <c r="F247" t="n">
         <v>2.5287</v>
@@ -11519,12 +11335,8 @@
       <c r="J247" s="2" t="n">
         <v>43772</v>
       </c>
-      <c r="K247" t="n">
-        <v>0</v>
-      </c>
-      <c r="L247" t="n">
-        <v>6</v>
-      </c>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
@@ -11542,7 +11354,7 @@
         <v>43773</v>
       </c>
       <c r="E248" t="n">
-        <v>0</v>
+        <v>0.0282</v>
       </c>
       <c r="F248" t="n">
         <v>0.4794</v>
@@ -11565,12 +11377,8 @@
       <c r="J248" s="2" t="n">
         <v>43779</v>
       </c>
-      <c r="K248" t="n">
-        <v>0</v>
-      </c>
-      <c r="L248" t="n">
-        <v>6</v>
-      </c>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
@@ -11860,7 +11668,7 @@
         <v>43822</v>
       </c>
       <c r="E255" t="n">
-        <v>0</v>
+        <v>0.3762</v>
       </c>
       <c r="F255" t="n">
         <v>14.9235</v>
@@ -11883,12 +11691,8 @@
       <c r="J255" s="2" t="n">
         <v>43828</v>
       </c>
-      <c r="K255" t="n">
-        <v>0</v>
-      </c>
-      <c r="L255" t="n">
-        <v>6</v>
-      </c>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
@@ -12182,7 +11986,7 @@
         <v>43871</v>
       </c>
       <c r="E262" t="n">
-        <v>0</v>
+        <v>0.03750000000000001</v>
       </c>
       <c r="F262" t="n">
         <v>1.0812</v>
@@ -12205,12 +12009,8 @@
       <c r="J262" s="2" t="n">
         <v>43877</v>
       </c>
-      <c r="K262" t="n">
-        <v>0</v>
-      </c>
-      <c r="L262" t="n">
-        <v>6</v>
-      </c>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
@@ -12588,7 +12388,7 @@
         <v>43934</v>
       </c>
       <c r="E271" t="n">
-        <v>0</v>
+        <v>1.3539</v>
       </c>
       <c r="F271" t="n">
         <v>103.3662</v>
@@ -12611,12 +12411,8 @@
       <c r="J271" s="2" t="n">
         <v>43940</v>
       </c>
-      <c r="K271" t="n">
-        <v>0</v>
-      </c>
-      <c r="L271" t="n">
-        <v>6</v>
-      </c>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
@@ -12856,7 +12652,7 @@
         <v>43976</v>
       </c>
       <c r="E277" t="n">
-        <v>0</v>
+        <v>0.4512</v>
       </c>
       <c r="F277" t="n">
         <v>63.6498</v>
@@ -12879,12 +12675,8 @@
       <c r="J277" s="2" t="n">
         <v>43982</v>
       </c>
-      <c r="K277" t="n">
-        <v>0</v>
-      </c>
-      <c r="L277" t="n">
-        <v>6</v>
-      </c>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
@@ -13312,7 +13104,7 @@
         <v>44046</v>
       </c>
       <c r="E287" t="n">
-        <v>24.15204</v>
+        <v>24.05799</v>
       </c>
       <c r="F287" t="n">
         <v>24.15204</v>
@@ -13335,12 +13127,8 @@
       <c r="J287" s="2" t="n">
         <v>44052</v>
       </c>
-      <c r="K287" t="n">
-        <v>6</v>
-      </c>
-      <c r="L287" t="n">
-        <v>0</v>
-      </c>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
@@ -13446,7 +13234,7 @@
         <v>44067</v>
       </c>
       <c r="E290" t="n">
-        <v>0</v>
+        <v>3.5739</v>
       </c>
       <c r="F290" t="n">
         <v>63.82233</v>
@@ -13469,12 +13257,8 @@
       <c r="J290" s="2" t="n">
         <v>44073</v>
       </c>
-      <c r="K290" t="n">
-        <v>0</v>
-      </c>
-      <c r="L290" t="n">
-        <v>6</v>
-      </c>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
@@ -13584,7 +13368,7 @@
         <v>44088</v>
       </c>
       <c r="E293" t="n">
-        <v>0</v>
+        <v>1.80576</v>
       </c>
       <c r="F293" t="n">
         <v>105.571125</v>
@@ -13607,12 +13391,8 @@
       <c r="J293" s="2" t="n">
         <v>44094</v>
       </c>
-      <c r="K293" t="n">
-        <v>0</v>
-      </c>
-      <c r="L293" t="n">
-        <v>6</v>
-      </c>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
@@ -13722,7 +13502,7 @@
         <v>44109</v>
       </c>
       <c r="E296" t="n">
-        <v>0</v>
+        <v>6.216705</v>
       </c>
       <c r="F296" t="n">
         <v>103.15404</v>
@@ -13745,12 +13525,8 @@
       <c r="J296" s="2" t="n">
         <v>44115</v>
       </c>
-      <c r="K296" t="n">
-        <v>0</v>
-      </c>
-      <c r="L296" t="n">
-        <v>6</v>
-      </c>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
@@ -13810,7 +13586,7 @@
         <v>44123</v>
       </c>
       <c r="E298" t="n">
-        <v>32.18391</v>
+        <v>31.28103</v>
       </c>
       <c r="F298" t="n">
         <v>32.18391</v>
@@ -13833,12 +13609,8 @@
       <c r="J298" s="2" t="n">
         <v>44129</v>
       </c>
-      <c r="K298" t="n">
-        <v>6</v>
-      </c>
-      <c r="L298" t="n">
-        <v>0</v>
-      </c>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
@@ -14358,7 +14130,7 @@
         <v>44207</v>
       </c>
       <c r="E310" t="n">
-        <v>0</v>
+        <v>0.047025</v>
       </c>
       <c r="F310" t="n">
         <v>43.58277</v>
@@ -14381,12 +14153,8 @@
       <c r="J310" s="2" t="n">
         <v>44213</v>
       </c>
-      <c r="K310" t="n">
-        <v>0</v>
-      </c>
-      <c r="L310" t="n">
-        <v>6</v>
-      </c>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
@@ -14680,7 +14448,7 @@
         <v>44256</v>
       </c>
       <c r="E317" t="n">
-        <v>0</v>
+        <v>0.58311</v>
       </c>
       <c r="F317" t="n">
         <v>12.424005</v>
@@ -14703,12 +14471,8 @@
       <c r="J317" s="2" t="n">
         <v>44262</v>
       </c>
-      <c r="K317" t="n">
-        <v>0</v>
-      </c>
-      <c r="L317" t="n">
-        <v>6</v>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
@@ -14768,7 +14532,7 @@
         <v>44270</v>
       </c>
       <c r="E319" t="n">
-        <v>0</v>
+        <v>0.45144</v>
       </c>
       <c r="F319" t="n">
         <v>42.5106</v>
@@ -14791,12 +14555,8 @@
       <c r="J319" s="2" t="n">
         <v>44276</v>
       </c>
-      <c r="K319" t="n">
-        <v>0</v>
-      </c>
-      <c r="L319" t="n">
-        <v>6</v>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
@@ -53848,7 +53608,7 @@
         <v>43248</v>
       </c>
       <c r="E1169" t="n">
-        <v>0</v>
+        <v>0.303</v>
       </c>
       <c r="F1169" t="n">
         <v>236.55</v>
@@ -53871,12 +53631,8 @@
       <c r="J1169" s="2" t="n">
         <v>43254</v>
       </c>
-      <c r="K1169" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1169" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1169" t="inlineStr"/>
+      <c r="L1169" t="inlineStr"/>
     </row>
     <row r="1170">
       <c r="A1170" s="1" t="n">
@@ -54246,7 +54002,7 @@
         <v>43311</v>
       </c>
       <c r="E1178" t="n">
-        <v>0</v>
+        <v>0.8939999999999999</v>
       </c>
       <c r="F1178" t="n">
         <v>33.60899999999999</v>
@@ -54269,12 +54025,8 @@
       <c r="J1178" s="2" t="n">
         <v>43317</v>
       </c>
-      <c r="K1178" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1178" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1178" t="inlineStr"/>
+      <c r="L1178" t="inlineStr"/>
     </row>
     <row r="1179">
       <c r="A1179" s="1" t="n">
@@ -54292,7 +54044,7 @@
         <v>43318</v>
       </c>
       <c r="E1179" t="n">
-        <v>0</v>
+        <v>2.592</v>
       </c>
       <c r="F1179" t="n">
         <v>309.312</v>
@@ -54315,12 +54067,8 @@
       <c r="J1179" s="2" t="n">
         <v>43324</v>
       </c>
-      <c r="K1179" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1179" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1179" t="inlineStr"/>
+      <c r="L1179" t="inlineStr"/>
     </row>
     <row r="1180">
       <c r="A1180" s="1" t="n">
@@ -54472,7 +54220,7 @@
         <v>43346</v>
       </c>
       <c r="E1183" t="n">
-        <v>22.68</v>
+        <v>20.937</v>
       </c>
       <c r="F1183" t="n">
         <v>22.68</v>
@@ -54495,12 +54243,8 @@
       <c r="J1183" s="2" t="n">
         <v>43352</v>
       </c>
-      <c r="K1183" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1183" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1183" t="inlineStr"/>
+      <c r="L1183" t="inlineStr"/>
     </row>
     <row r="1184">
       <c r="A1184" s="1" t="n">
@@ -54560,7 +54304,7 @@
         <v>43360</v>
       </c>
       <c r="E1185" t="n">
-        <v>0</v>
+        <v>1.554</v>
       </c>
       <c r="F1185" t="n">
         <v>74.592</v>
@@ -54583,12 +54327,8 @@
       <c r="J1185" s="2" t="n">
         <v>43366</v>
       </c>
-      <c r="K1185" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1185" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1185" t="inlineStr"/>
+      <c r="L1185" t="inlineStr"/>
     </row>
     <row r="1186">
       <c r="A1186" s="1" t="n">
@@ -54694,7 +54434,7 @@
         <v>43381</v>
       </c>
       <c r="E1188" t="n">
-        <v>0</v>
+        <v>3.111</v>
       </c>
       <c r="F1188" t="n">
         <v>91.038</v>
@@ -54717,12 +54457,8 @@
       <c r="J1188" s="2" t="n">
         <v>43387</v>
       </c>
-      <c r="K1188" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1188" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1188" t="inlineStr"/>
+      <c r="L1188" t="inlineStr"/>
     </row>
     <row r="1189">
       <c r="A1189" s="1" t="n">
@@ -56524,7 +56260,7 @@
         <v>43668</v>
       </c>
       <c r="E1229" t="n">
-        <v>0</v>
+        <v>20.4048</v>
       </c>
       <c r="F1229" t="n">
         <v>329.0688</v>
@@ -56547,12 +56283,8 @@
       <c r="J1229" s="2" t="n">
         <v>43674</v>
       </c>
-      <c r="K1229" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1229" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1229" t="inlineStr"/>
+      <c r="L1229" t="inlineStr"/>
     </row>
     <row r="1230">
       <c r="A1230" s="1" t="n">
@@ -56846,7 +56578,7 @@
         <v>43717</v>
       </c>
       <c r="E1236" t="n">
-        <v>0</v>
+        <v>18.3744</v>
       </c>
       <c r="F1236" t="n">
         <v>315.5184</v>
@@ -56869,12 +56601,8 @@
       <c r="J1236" s="2" t="n">
         <v>43723</v>
       </c>
-      <c r="K1236" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1236" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1236" t="inlineStr"/>
+      <c r="L1236" t="inlineStr"/>
     </row>
     <row r="1237">
       <c r="A1237" s="1" t="n">
@@ -57244,7 +56972,7 @@
         <v>43780</v>
       </c>
       <c r="E1245" t="n">
-        <v>0</v>
+        <v>1.728</v>
       </c>
       <c r="F1245" t="n">
         <v>210.5856</v>
@@ -57267,12 +56995,8 @@
       <c r="J1245" s="2" t="n">
         <v>43786</v>
       </c>
-      <c r="K1245" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1245" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1245" t="inlineStr"/>
+      <c r="L1245" t="inlineStr"/>
     </row>
     <row r="1246">
       <c r="A1246" s="1" t="n">
@@ -57516,7 +57240,7 @@
         <v>43822</v>
       </c>
       <c r="E1251" t="n">
-        <v>0</v>
+        <v>1.5552</v>
       </c>
       <c r="F1251" t="n">
         <v>142.8912</v>
@@ -57539,12 +57263,8 @@
       <c r="J1251" s="2" t="n">
         <v>43828</v>
       </c>
-      <c r="K1251" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1251" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1251" t="inlineStr"/>
+      <c r="L1251" t="inlineStr"/>
     </row>
     <row r="1252">
       <c r="A1252" s="1" t="n">
@@ -57922,7 +57642,7 @@
         <v>43885</v>
       </c>
       <c r="E1260" t="n">
-        <v>0</v>
+        <v>16.632</v>
       </c>
       <c r="F1260" t="n">
         <v>291.3408</v>
@@ -57945,12 +57665,8 @@
       <c r="J1260" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="K1260" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1260" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1260" t="inlineStr"/>
+      <c r="L1260" t="inlineStr"/>
     </row>
     <row r="1261">
       <c r="A1261" s="1" t="n">
@@ -58496,7 +58212,7 @@
         <v>43976</v>
       </c>
       <c r="E1273" t="n">
-        <v>34.2432</v>
+        <v>34.1424</v>
       </c>
       <c r="F1273" t="n">
         <v>34.2432</v>
@@ -58519,12 +58235,8 @@
       <c r="J1273" s="2" t="n">
         <v>43982</v>
       </c>
-      <c r="K1273" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1273" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1273" t="inlineStr"/>
+      <c r="L1273" t="inlineStr"/>
     </row>
     <row r="1274">
       <c r="A1274" s="1" t="n">
@@ -58852,7 +58564,7 @@
         <v>44032</v>
       </c>
       <c r="E1281" t="n">
-        <v>0</v>
+        <v>4.383654</v>
       </c>
       <c r="F1281" t="n">
         <v>191.615949</v>
@@ -58875,12 +58587,8 @@
       <c r="J1281" s="2" t="n">
         <v>44038</v>
       </c>
-      <c r="K1281" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1281" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1281" t="inlineStr"/>
+      <c r="L1281" t="inlineStr"/>
     </row>
     <row r="1282">
       <c r="A1282" s="1" t="n">
@@ -58898,7 +58606,7 @@
         <v>44039</v>
       </c>
       <c r="E1282" t="n">
-        <v>0</v>
+        <v>8.510400000000001</v>
       </c>
       <c r="F1282" t="n">
         <v>237.0528</v>
@@ -58921,12 +58629,8 @@
       <c r="J1282" s="2" t="n">
         <v>44045</v>
       </c>
-      <c r="K1282" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1282" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1282" t="inlineStr"/>
+      <c r="L1282" t="inlineStr"/>
     </row>
     <row r="1283">
       <c r="A1283" s="1" t="n">
@@ -58990,7 +58694,7 @@
         <v>44053</v>
       </c>
       <c r="E1284" t="n">
-        <v>0</v>
+        <v>1.728</v>
       </c>
       <c r="F1284" t="n">
         <v>115.632</v>
@@ -59013,12 +58717,8 @@
       <c r="J1284" s="2" t="n">
         <v>44059</v>
       </c>
-      <c r="K1284" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1284" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1284" t="inlineStr"/>
+      <c r="L1284" t="inlineStr"/>
     </row>
     <row r="1285">
       <c r="A1285" s="1" t="n">
@@ -60928,7 +60628,7 @@
         <v>44333</v>
       </c>
       <c r="E1327" t="n">
-        <v>0</v>
+        <v>4.152384</v>
       </c>
       <c r="F1327" t="n">
         <v>96.260976</v>
@@ -60951,12 +60651,8 @@
       <c r="J1327" s="2" t="n">
         <v>44339</v>
       </c>
-      <c r="K1327" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1327" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1327" t="inlineStr"/>
+      <c r="L1327" t="inlineStr"/>
     </row>
     <row r="1328">
       <c r="A1328" s="1" t="n">
@@ -61602,7 +61298,7 @@
         <v>43269</v>
       </c>
       <c r="E1342" t="n">
-        <v>0</v>
+        <v>0.546</v>
       </c>
       <c r="F1342" t="n">
         <v>7.026</v>
@@ -61625,12 +61321,8 @@
       <c r="J1342" s="2" t="n">
         <v>43275</v>
       </c>
-      <c r="K1342" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1342" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1342" t="inlineStr"/>
+      <c r="L1342" t="inlineStr"/>
     </row>
     <row r="1343">
       <c r="A1343" s="1" t="n">
@@ -61648,7 +61340,7 @@
         <v>43276</v>
       </c>
       <c r="E1343" t="n">
-        <v>0</v>
+        <v>0.4319999999999999</v>
       </c>
       <c r="F1343" t="n">
         <v>108.492</v>
@@ -61671,12 +61363,8 @@
       <c r="J1343" s="2" t="n">
         <v>43282</v>
       </c>
-      <c r="K1343" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1343" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1343" t="inlineStr"/>
+      <c r="L1343" t="inlineStr"/>
     </row>
     <row r="1344">
       <c r="A1344" s="1" t="n">
@@ -61870,7 +61558,7 @@
         <v>43311</v>
       </c>
       <c r="E1348" t="n">
-        <v>0</v>
+        <v>0.5669999999999999</v>
       </c>
       <c r="F1348" t="n">
         <v>17.34</v>
@@ -61893,12 +61581,8 @@
       <c r="J1348" s="2" t="n">
         <v>43317</v>
       </c>
-      <c r="K1348" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1348" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1348" t="inlineStr"/>
+      <c r="L1348" t="inlineStr"/>
     </row>
     <row r="1349">
       <c r="A1349" s="1" t="n">
@@ -61916,7 +61600,7 @@
         <v>43318</v>
       </c>
       <c r="E1349" t="n">
-        <v>0</v>
+        <v>0.648</v>
       </c>
       <c r="F1349" t="n">
         <v>95.517</v>
@@ -61939,12 +61623,8 @@
       <c r="J1349" s="2" t="n">
         <v>43324</v>
       </c>
-      <c r="K1349" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1349" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1349" t="inlineStr"/>
+      <c r="L1349" t="inlineStr"/>
     </row>
     <row r="1350">
       <c r="A1350" s="1" t="n">
@@ -62188,7 +61868,7 @@
         <v>43360</v>
       </c>
       <c r="E1355" t="n">
-        <v>0</v>
+        <v>1.479</v>
       </c>
       <c r="F1355" t="n">
         <v>24.441</v>
@@ -62211,12 +61891,8 @@
       <c r="J1355" s="2" t="n">
         <v>43366</v>
       </c>
-      <c r="K1355" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1355" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1355" t="inlineStr"/>
+      <c r="L1355" t="inlineStr"/>
     </row>
     <row r="1356">
       <c r="A1356" s="1" t="n">
@@ -62234,7 +61910,7 @@
         <v>43367</v>
       </c>
       <c r="E1356" t="n">
-        <v>0</v>
+        <v>0.372</v>
       </c>
       <c r="F1356" t="n">
         <v>114.936</v>
@@ -62257,12 +61933,8 @@
       <c r="J1356" s="2" t="n">
         <v>43373</v>
       </c>
-      <c r="K1356" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1356" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1356" t="inlineStr"/>
+      <c r="L1356" t="inlineStr"/>
     </row>
     <row r="1357">
       <c r="A1357" s="1" t="n">
@@ -62544,7 +62216,7 @@
         <v>43416</v>
       </c>
       <c r="E1363" t="n">
-        <v>11.184</v>
+        <v>10.983</v>
       </c>
       <c r="F1363" t="n">
         <v>11.184</v>
@@ -62567,12 +62239,8 @@
       <c r="J1363" s="2" t="n">
         <v>43422</v>
       </c>
-      <c r="K1363" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1363" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1363" t="inlineStr"/>
+      <c r="L1363" t="inlineStr"/>
     </row>
     <row r="1364">
       <c r="A1364" s="1" t="n">
@@ -62678,7 +62346,7 @@
         <v>43437</v>
       </c>
       <c r="E1366" t="n">
-        <v>0</v>
+        <v>2.457</v>
       </c>
       <c r="F1366" t="n">
         <v>134.3154</v>
@@ -62701,12 +62369,8 @@
       <c r="J1366" s="2" t="n">
         <v>43443</v>
       </c>
-      <c r="K1366" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1366" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1366" t="inlineStr"/>
+      <c r="L1366" t="inlineStr"/>
     </row>
     <row r="1367">
       <c r="A1367" s="1" t="n">
@@ -62858,7 +62522,7 @@
         <v>43465</v>
       </c>
       <c r="E1370" t="n">
-        <v>1.5657</v>
+        <v>1.4646</v>
       </c>
       <c r="F1370" t="n">
         <v>1.5657</v>
@@ -62881,12 +62545,8 @@
       <c r="J1370" s="2" t="n">
         <v>43471</v>
       </c>
-      <c r="K1370" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1370" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1370" t="inlineStr"/>
+      <c r="L1370" t="inlineStr"/>
     </row>
     <row r="1371">
       <c r="A1371" s="1" t="n">
@@ -63042,7 +62702,7 @@
         <v>43493</v>
       </c>
       <c r="E1374" t="n">
-        <v>0</v>
+        <v>1.0125</v>
       </c>
       <c r="F1374" t="n">
         <v>14.9511</v>
@@ -63065,12 +62725,8 @@
       <c r="J1374" s="2" t="n">
         <v>43499</v>
       </c>
-      <c r="K1374" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1374" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1374" t="inlineStr"/>
+      <c r="L1374" t="inlineStr"/>
     </row>
     <row r="1375">
       <c r="A1375" s="1" t="n">
@@ -64772,7 +64428,7 @@
         <v>43766</v>
       </c>
       <c r="E1413" t="n">
-        <v>0</v>
+        <v>0.0471</v>
       </c>
       <c r="F1413" t="n">
         <v>3.7995</v>
@@ -64795,12 +64451,8 @@
       <c r="J1413" s="2" t="n">
         <v>43772</v>
       </c>
-      <c r="K1413" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1413" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1413" t="inlineStr"/>
+      <c r="L1413" t="inlineStr"/>
     </row>
     <row r="1414">
       <c r="A1414" s="1" t="n">
@@ -64818,7 +64470,7 @@
         <v>43773</v>
       </c>
       <c r="E1414" t="n">
-        <v>8.4102</v>
+        <v>8.0052</v>
       </c>
       <c r="F1414" t="n">
         <v>8.4102</v>
@@ -64841,12 +64493,8 @@
       <c r="J1414" s="2" t="n">
         <v>43779</v>
       </c>
-      <c r="K1414" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1414" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1414" t="inlineStr"/>
+      <c r="L1414" t="inlineStr"/>
     </row>
     <row r="1415">
       <c r="A1415" s="1" t="n">
@@ -64864,7 +64512,7 @@
         <v>43780</v>
       </c>
       <c r="E1415" t="n">
-        <v>0</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="F1415" t="n">
         <v>74.14019999999999</v>
@@ -64887,12 +64535,8 @@
       <c r="J1415" s="2" t="n">
         <v>43786</v>
       </c>
-      <c r="K1415" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1415" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1415" t="inlineStr"/>
+      <c r="L1415" t="inlineStr"/>
     </row>
     <row r="1416">
       <c r="A1416" s="1" t="n">
@@ -65136,7 +64780,7 @@
         <v>43822</v>
       </c>
       <c r="E1421" t="n">
-        <v>0</v>
+        <v>1.8225</v>
       </c>
       <c r="F1421" t="n">
         <v>21.4377</v>
@@ -65159,12 +64803,8 @@
       <c r="J1421" s="2" t="n">
         <v>43828</v>
       </c>
-      <c r="K1421" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1421" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1421" t="inlineStr"/>
+      <c r="L1421" t="inlineStr"/>
     </row>
     <row r="1422">
       <c r="A1422" s="1" t="n">
@@ -65542,7 +65182,7 @@
         <v>43885</v>
       </c>
       <c r="E1430" t="n">
-        <v>0</v>
+        <v>0.9585</v>
       </c>
       <c r="F1430" t="n">
         <v>91.18380000000001</v>
@@ -65565,12 +65205,8 @@
       <c r="J1430" s="2" t="n">
         <v>43891</v>
       </c>
-      <c r="K1430" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1430" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1430" t="inlineStr"/>
+      <c r="L1430" t="inlineStr"/>
     </row>
     <row r="1431">
       <c r="A1431" s="1" t="n">
@@ -66442,7 +66078,7 @@
         <v>44025</v>
       </c>
       <c r="E1450" t="n">
-        <v>0</v>
+        <v>2.202726</v>
       </c>
       <c r="F1450" t="n">
         <v>60.980346</v>
@@ -66465,12 +66101,8 @@
       <c r="J1450" s="2" t="n">
         <v>44031</v>
       </c>
-      <c r="K1450" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1450" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1450" t="inlineStr"/>
+      <c r="L1450" t="inlineStr"/>
     </row>
     <row r="1451">
       <c r="A1451" s="1" t="n">
@@ -66576,7 +66208,7 @@
         <v>44046</v>
       </c>
       <c r="E1453" t="n">
-        <v>9.47025</v>
+        <v>9.4095</v>
       </c>
       <c r="F1453" t="n">
         <v>9.47025</v>
@@ -66599,12 +66231,8 @@
       <c r="J1453" s="2" t="n">
         <v>44052</v>
       </c>
-      <c r="K1453" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1453" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1453" t="inlineStr"/>
+      <c r="L1453" t="inlineStr"/>
     </row>
     <row r="1454">
       <c r="A1454" s="1" t="n">
@@ -66710,7 +66338,7 @@
         <v>44067</v>
       </c>
       <c r="E1456" t="n">
-        <v>0</v>
+        <v>1.3635</v>
       </c>
       <c r="F1456" t="n">
         <v>64.54350000000001</v>
@@ -66733,12 +66361,8 @@
       <c r="J1456" s="2" t="n">
         <v>44073</v>
       </c>
-      <c r="K1456" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1456" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1456" t="inlineStr"/>
+      <c r="L1456" t="inlineStr"/>
     </row>
     <row r="1457">
       <c r="A1457" s="1" t="n">
@@ -67028,7 +66652,7 @@
         <v>44116</v>
       </c>
       <c r="E1463" t="n">
-        <v>13.96575</v>
+        <v>13.42575</v>
       </c>
       <c r="F1463" t="n">
         <v>13.96575</v>
@@ -67051,12 +66675,8 @@
       <c r="J1463" s="2" t="n">
         <v>44122</v>
       </c>
-      <c r="K1463" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1463" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1463" t="inlineStr"/>
+      <c r="L1463" t="inlineStr"/>
     </row>
     <row r="1464">
       <c r="A1464" s="1" t="n">
@@ -67158,7 +66778,7 @@
         <v>44137</v>
       </c>
       <c r="E1466" t="n">
-        <v>11.06325</v>
+        <v>10.52325</v>
       </c>
       <c r="F1466" t="n">
         <v>11.06325</v>
@@ -67181,12 +66801,8 @@
       <c r="J1466" s="2" t="n">
         <v>44143</v>
       </c>
-      <c r="K1466" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1466" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1466" t="inlineStr"/>
+      <c r="L1466" t="inlineStr"/>
     </row>
     <row r="1467">
       <c r="A1467" s="1" t="n">
@@ -67878,7 +67494,7 @@
         <v>44249</v>
       </c>
       <c r="E1482" t="n">
-        <v>0</v>
+        <v>0.5805</v>
       </c>
       <c r="F1482" t="n">
         <v>10.33425</v>
@@ -67901,12 +67517,8 @@
       <c r="J1482" s="2" t="n">
         <v>44255</v>
       </c>
-      <c r="K1482" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1482" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1482" t="inlineStr"/>
+      <c r="L1482" t="inlineStr"/>
     </row>
     <row r="1483">
       <c r="A1483" s="1" t="n">
@@ -68192,7 +67804,7 @@
         <v>44298</v>
       </c>
       <c r="E1489" t="n">
-        <v>0</v>
+        <v>2.16675</v>
       </c>
       <c r="F1489" t="n">
         <v>47.0205</v>
@@ -68215,12 +67827,8 @@
       <c r="J1489" s="2" t="n">
         <v>44304</v>
       </c>
-      <c r="K1489" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1489" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1489" t="inlineStr"/>
+      <c r="L1489" t="inlineStr"/>
     </row>
     <row r="1490">
       <c r="A1490" s="1" t="n">
@@ -69514,7 +69122,7 @@
         <v>43339</v>
       </c>
       <c r="E1518" t="n">
-        <v>0</v>
+        <v>1.23</v>
       </c>
       <c r="F1518" t="n">
         <v>123.12</v>
@@ -69537,12 +69145,8 @@
       <c r="J1518" s="2" t="n">
         <v>43345</v>
       </c>
-      <c r="K1518" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1518" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1518" t="inlineStr"/>
+      <c r="L1518" t="inlineStr"/>
     </row>
     <row r="1519">
       <c r="A1519" s="1" t="n">
@@ -69916,7 +69520,7 @@
         <v>43402</v>
       </c>
       <c r="E1527" t="n">
-        <v>29.007</v>
+        <v>28.845</v>
       </c>
       <c r="F1527" t="n">
         <v>29.007</v>
@@ -69939,12 +69543,8 @@
       <c r="J1527" s="2" t="n">
         <v>43408</v>
       </c>
-      <c r="K1527" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1527" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1527" t="inlineStr"/>
+      <c r="L1527" t="inlineStr"/>
     </row>
     <row r="1528">
       <c r="A1528" s="1" t="n">
@@ -69962,7 +69562,7 @@
         <v>43409</v>
       </c>
       <c r="E1528" t="n">
-        <v>21.942</v>
+        <v>21.813</v>
       </c>
       <c r="F1528" t="n">
         <v>21.942</v>
@@ -69985,12 +69585,8 @@
       <c r="J1528" s="2" t="n">
         <v>43415</v>
       </c>
-      <c r="K1528" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1528" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1528" t="inlineStr"/>
+      <c r="L1528" t="inlineStr"/>
     </row>
     <row r="1529">
       <c r="A1529" s="1" t="n">
@@ -70556,7 +70152,7 @@
         <v>43500</v>
       </c>
       <c r="E1541" t="n">
-        <v>0</v>
+        <v>4.9653</v>
       </c>
       <c r="F1541" t="n">
         <v>150.5547</v>
@@ -70579,12 +70175,8 @@
       <c r="J1541" s="2" t="n">
         <v>43506</v>
       </c>
-      <c r="K1541" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1541" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1541" t="inlineStr"/>
+      <c r="L1541" t="inlineStr"/>
     </row>
     <row r="1542">
       <c r="A1542" s="1" t="n">
@@ -72324,7 +71916,7 @@
         <v>43780</v>
       </c>
       <c r="E1581" t="n">
-        <v>0</v>
+        <v>2.511</v>
       </c>
       <c r="F1581" t="n">
         <v>89.34299999999999</v>
@@ -72347,12 +71939,8 @@
       <c r="J1581" s="2" t="n">
         <v>43786</v>
       </c>
-      <c r="K1581" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1581" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1581" t="inlineStr"/>
+      <c r="L1581" t="inlineStr"/>
     </row>
     <row r="1582">
       <c r="A1582" s="1" t="n">
@@ -72596,7 +72184,7 @@
         <v>43822</v>
       </c>
       <c r="E1587" t="n">
-        <v>0</v>
+        <v>3.4749</v>
       </c>
       <c r="F1587" t="n">
         <v>60.3288</v>
@@ -72619,12 +72207,8 @@
       <c r="J1587" s="2" t="n">
         <v>43828</v>
       </c>
-      <c r="K1587" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1587" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1587" t="inlineStr"/>
+      <c r="L1587" t="inlineStr"/>
     </row>
     <row r="1588">
       <c r="A1588" s="1" t="n">
@@ -73852,7 +73436,7 @@
         <v>44018</v>
       </c>
       <c r="E1615" t="n">
-        <v>0</v>
+        <v>7.621698</v>
       </c>
       <c r="F1615" t="n">
         <v>181.558593</v>
@@ -73875,12 +73459,8 @@
       <c r="J1615" s="2" t="n">
         <v>44024</v>
       </c>
-      <c r="K1615" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1615" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1615" t="inlineStr"/>
+      <c r="L1615" t="inlineStr"/>
     </row>
     <row r="1616">
       <c r="A1616" s="1" t="n">
@@ -73898,7 +73478,7 @@
         <v>44025</v>
       </c>
       <c r="E1616" t="n">
-        <v>0</v>
+        <v>2.116239</v>
       </c>
       <c r="F1616" t="n">
         <v>50.40051</v>
@@ -73921,12 +73501,8 @@
       <c r="J1616" s="2" t="n">
         <v>44031</v>
       </c>
-      <c r="K1616" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1616" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1616" t="inlineStr"/>
+      <c r="L1616" t="inlineStr"/>
     </row>
     <row r="1617">
       <c r="A1617" s="1" t="n">
@@ -74606,7 +74182,7 @@
         <v>44137</v>
       </c>
       <c r="E1632" t="n">
-        <v>52.8768</v>
+        <v>52.5528</v>
       </c>
       <c r="F1632" t="n">
         <v>52.8768</v>
@@ -74629,12 +74205,8 @@
       <c r="J1632" s="2" t="n">
         <v>44143</v>
       </c>
-      <c r="K1632" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1632" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1632" t="inlineStr"/>
+      <c r="L1632" t="inlineStr"/>
     </row>
     <row r="1633">
       <c r="A1633" s="1" t="n">
@@ -75418,7 +74990,7 @@
         <v>44263</v>
       </c>
       <c r="E1650" t="n">
-        <v>0</v>
+        <v>6.1236</v>
       </c>
       <c r="F1650" t="n">
         <v>119.8476</v>
@@ -75441,12 +75013,8 @@
       <c r="J1650" s="2" t="n">
         <v>44269</v>
       </c>
-      <c r="K1650" t="n">
-        <v>0</v>
-      </c>
-      <c r="L1650" t="n">
-        <v>6</v>
-      </c>
+      <c r="K1650" t="inlineStr"/>
+      <c r="L1650" t="inlineStr"/>
     </row>
     <row r="1651">
       <c r="A1651" s="1" t="n">
@@ -75510,7 +75078,7 @@
         <v>44277</v>
       </c>
       <c r="E1652" t="n">
-        <v>8.4564</v>
+        <v>8.019</v>
       </c>
       <c r="F1652" t="n">
         <v>8.4564</v>
@@ -75533,12 +75101,8 @@
       <c r="J1652" s="2" t="n">
         <v>44283</v>
       </c>
-      <c r="K1652" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1652" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1652" t="inlineStr"/>
+      <c r="L1652" t="inlineStr"/>
     </row>
     <row r="1653">
       <c r="A1653" s="1" t="n">
@@ -75556,7 +75120,7 @@
         <v>44284</v>
       </c>
       <c r="E1653" t="n">
-        <v>30.4884</v>
+        <v>30.1239</v>
       </c>
       <c r="F1653" t="n">
         <v>30.4884</v>
@@ -75579,12 +75143,8 @@
       <c r="J1653" s="2" t="n">
         <v>44290</v>
       </c>
-      <c r="K1653" t="n">
-        <v>6</v>
-      </c>
-      <c r="L1653" t="n">
-        <v>0</v>
-      </c>
+      <c r="K1653" t="inlineStr"/>
+      <c r="L1653" t="inlineStr"/>
     </row>
     <row r="1654">
       <c r="A1654" s="1" t="n">
